--- a/data/machine/machineWorkingPlan.xlsx
+++ b/data/machine/machineWorkingPlan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>工单号</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -117,6 +117,14 @@
   </si>
   <si>
     <t>typeID</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>批次订单号</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>salesOrderBatchCode</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -526,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -546,9 +554,10 @@
     <col min="11" max="11" width="10.5" customWidth="1"/>
     <col min="12" max="12" width="10" customWidth="1"/>
     <col min="13" max="13" width="12" customWidth="1"/>
+    <col min="14" max="14" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>24</v>
       </c>
@@ -588,8 +597,11 @@
       <c r="M1" s="7" t="s">
         <v>18</v>
       </c>
+      <c r="N1" s="7" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>25</v>
       </c>
@@ -629,8 +641,11 @@
       <c r="M2" s="7" t="s">
         <v>19</v>
       </c>
+      <c r="N2" s="7" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
